--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Модель</t>
   </si>
@@ -39,6 +39,21 @@
   </si>
   <si>
     <t>Обучение только на победах белых -&gt; прогноз ретйтинга белых</t>
+  </si>
+  <si>
+    <t>Обучение только на победах черных -&gt; прогноз ретйтинга черных</t>
+  </si>
+  <si>
+    <t>Обучение только на ничьих -&gt; прогноз ретйтинга белых</t>
+  </si>
+  <si>
+    <t>Обучение только на ничьих -&gt; прогноз ретйтинга черных</t>
+  </si>
+  <si>
+    <t>Обучение только на проигрышах белых -&gt; прогноз ретйтинга белых</t>
+  </si>
+  <si>
+    <t>Обучение только на проигрышах черных -&gt; прогноз ретйтинга черных</t>
   </si>
 </sst>
 </file>
@@ -396,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,10 +451,110 @@
         <v>0.4537184826328874</v>
       </c>
       <c r="E2">
-        <v>0.16</v>
+        <v>0.158</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>176.3264392457923</v>
+      </c>
+      <c r="C3">
+        <v>221.7670502506353</v>
+      </c>
+      <c r="D3">
+        <v>0.4615198499542351</v>
+      </c>
+      <c r="E3">
+        <v>0.145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>177.4317343765107</v>
+      </c>
+      <c r="C4">
+        <v>224.5951994321098</v>
+      </c>
+      <c r="D4">
+        <v>0.4647136211820422</v>
+      </c>
+      <c r="E4">
+        <v>0.15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>182.0486487891933</v>
+      </c>
+      <c r="C5">
+        <v>228.3849918184082</v>
+      </c>
+      <c r="D5">
+        <v>0.4517214486755745</v>
+      </c>
+      <c r="E5">
+        <v>0.141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>192.0628053618938</v>
+      </c>
+      <c r="C6">
+        <v>241.5809901604144</v>
+      </c>
+      <c r="D6">
+        <v>0.4673378389294096</v>
+      </c>
+      <c r="E6">
+        <v>0.141</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>193.2422929664311</v>
+      </c>
+      <c r="C7">
+        <v>242.4044882058142</v>
+      </c>
+      <c r="D7">
+        <v>0.4616176029564751</v>
+      </c>
+      <c r="E7">
+        <v>0.16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Модель</t>
   </si>
@@ -38,6 +38,12 @@
          normalize=False)</t>
   </si>
   <si>
+    <t>Обучение на полном набооре -&gt; прогноз рейтингов белых</t>
+  </si>
+  <si>
+    <t>Обучение на полном набооре -&gt; прогноз рейтингов черных</t>
+  </si>
+  <si>
     <t>Обучение только на победах белых -&gt; прогноз ретйтинга белых</t>
   </si>
   <si>
@@ -54,6 +60,15 @@
   </si>
   <si>
     <t>Обучение только на проигрышах черных -&gt; прогноз ретйтинга черных</t>
+  </si>
+  <si>
+    <t>Обучение на среднем ЭЛО</t>
+  </si>
+  <si>
+    <t>Обучение на разнице в рейтинге</t>
+  </si>
+  <si>
+    <t>Обучение на сумме рейтингов</t>
   </si>
 </sst>
 </file>
@@ -411,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,16 +457,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>175.5939485738201</v>
+        <v>186.5390674252348</v>
       </c>
       <c r="C2">
-        <v>221.3537962645542</v>
+        <v>234.5591344166317</v>
       </c>
       <c r="D2">
-        <v>0.4537184826328874</v>
+        <v>0.4861114575434856</v>
       </c>
       <c r="E2">
-        <v>0.158</v>
+        <v>0.362</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -462,16 +477,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>176.3264392457923</v>
+        <v>189.3584427677377</v>
       </c>
       <c r="C3">
-        <v>221.7670502506353</v>
+        <v>237.4201235143905</v>
       </c>
       <c r="D3">
-        <v>0.4615198499542351</v>
+        <v>0.4833031758143577</v>
       </c>
       <c r="E3">
-        <v>0.145</v>
+        <v>0.362</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -482,16 +497,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>177.4317343765107</v>
+        <v>175.5939485738201</v>
       </c>
       <c r="C4">
-        <v>224.5951994321098</v>
+        <v>221.3537962645542</v>
       </c>
       <c r="D4">
-        <v>0.4647136211820422</v>
+        <v>0.4537184826328874</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -502,16 +517,16 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>182.0486487891933</v>
+        <v>176.3264392457923</v>
       </c>
       <c r="C5">
-        <v>228.3849918184082</v>
+        <v>221.7670502506353</v>
       </c>
       <c r="D5">
-        <v>0.4517214486755745</v>
+        <v>0.4615198499542351</v>
       </c>
       <c r="E5">
-        <v>0.141</v>
+        <v>0.216</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -522,16 +537,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>192.0628053618938</v>
+        <v>177.4317343765107</v>
       </c>
       <c r="C6">
-        <v>241.5809901604144</v>
+        <v>224.5951994321098</v>
       </c>
       <c r="D6">
-        <v>0.4673378389294096</v>
+        <v>0.4647136211820422</v>
       </c>
       <c r="E6">
-        <v>0.141</v>
+        <v>0.137</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -542,19 +557,119 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>193.2422929664311</v>
+        <v>182.0486487891933</v>
       </c>
       <c r="C7">
-        <v>242.4044882058142</v>
+        <v>228.3849918184082</v>
       </c>
       <c r="D7">
-        <v>0.4616176029564751</v>
+        <v>0.4517214486755745</v>
       </c>
       <c r="E7">
-        <v>0.16</v>
+        <v>0.144</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>192.0628053618938</v>
+      </c>
+      <c r="C8">
+        <v>241.5809901604144</v>
+      </c>
+      <c r="D8">
+        <v>0.4673378389294096</v>
+      </c>
+      <c r="E8">
+        <v>0.152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>193.2422929664311</v>
+      </c>
+      <c r="C9">
+        <v>242.4044882058142</v>
+      </c>
+      <c r="D9">
+        <v>0.4616176029564751</v>
+      </c>
+      <c r="E9">
+        <v>0.175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>171.079101230132</v>
+      </c>
+      <c r="C10">
+        <v>215.5222937985535</v>
+      </c>
+      <c r="D10">
+        <v>0.4612427786722407</v>
+      </c>
+      <c r="E10">
+        <v>0.347</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>100.070525617908</v>
+      </c>
+      <c r="C11">
+        <v>129.8889061792845</v>
+      </c>
+      <c r="D11">
+        <v>0.3048479999178756</v>
+      </c>
+      <c r="E11">
+        <v>0.378</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>342.1607352745056</v>
+      </c>
+      <c r="C12">
+        <v>431.0499430753056</v>
+      </c>
+      <c r="D12">
+        <v>0.4612424339883401</v>
+      </c>
+      <c r="E12">
+        <v>0.358</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -466,7 +466,7 @@
         <v>0.4861114575434856</v>
       </c>
       <c r="E2">
-        <v>0.362</v>
+        <v>1.482</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -486,7 +486,7 @@
         <v>0.4833031758143577</v>
       </c>
       <c r="E3">
-        <v>0.362</v>
+        <v>1.482</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -506,7 +506,7 @@
         <v>0.4537184826328874</v>
       </c>
       <c r="E4">
-        <v>0.153</v>
+        <v>0.187</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -526,7 +526,7 @@
         <v>0.4615198499542351</v>
       </c>
       <c r="E5">
-        <v>0.216</v>
+        <v>0.402</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
         <v>0.4647136211820422</v>
       </c>
       <c r="E6">
-        <v>0.137</v>
+        <v>0.16</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -566,7 +566,7 @@
         <v>0.4517214486755745</v>
       </c>
       <c r="E7">
-        <v>0.144</v>
+        <v>0.155</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -586,7 +586,7 @@
         <v>0.4673378389294096</v>
       </c>
       <c r="E8">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -606,7 +606,7 @@
         <v>0.4616176029564751</v>
       </c>
       <c r="E9">
-        <v>0.175</v>
+        <v>0.191</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -626,7 +626,7 @@
         <v>0.4612427786722407</v>
       </c>
       <c r="E10">
-        <v>0.347</v>
+        <v>0.375</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -637,16 +637,16 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>100.070525617908</v>
+        <v>150.7008961384476</v>
       </c>
       <c r="C11">
-        <v>129.8889061792845</v>
+        <v>192.2720774072816</v>
       </c>
       <c r="D11">
-        <v>0.3048479999178756</v>
+        <v>0.57432012879721</v>
       </c>
       <c r="E11">
-        <v>0.378</v>
+        <v>0.395</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -666,7 +666,7 @@
         <v>0.4612424339883401</v>
       </c>
       <c r="E12">
-        <v>0.358</v>
+        <v>0.396</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -466,7 +466,7 @@
         <v>0.4861114575434856</v>
       </c>
       <c r="E2">
-        <v>1.482</v>
+        <v>0.931</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -486,7 +486,7 @@
         <v>0.4833031758143577</v>
       </c>
       <c r="E3">
-        <v>1.482</v>
+        <v>0.931</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -506,7 +506,7 @@
         <v>0.4537184826328874</v>
       </c>
       <c r="E4">
-        <v>0.187</v>
+        <v>0.32</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -526,7 +526,7 @@
         <v>0.4615198499542351</v>
       </c>
       <c r="E5">
-        <v>0.402</v>
+        <v>0.265</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -546,7 +546,7 @@
         <v>0.4647136211820422</v>
       </c>
       <c r="E6">
-        <v>0.16</v>
+        <v>0.138</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -566,7 +566,7 @@
         <v>0.4517214486755745</v>
       </c>
       <c r="E7">
-        <v>0.155</v>
+        <v>0.139</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -586,7 +586,7 @@
         <v>0.4673378389294096</v>
       </c>
       <c r="E8">
-        <v>0.153</v>
+        <v>0.142</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -606,7 +606,7 @@
         <v>0.4616176029564751</v>
       </c>
       <c r="E9">
-        <v>0.191</v>
+        <v>0.172</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -626,7 +626,7 @@
         <v>0.4612427786722407</v>
       </c>
       <c r="E10">
-        <v>0.375</v>
+        <v>0.369</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -646,7 +646,7 @@
         <v>0.57432012879721</v>
       </c>
       <c r="E11">
-        <v>0.395</v>
+        <v>0.384</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -666,7 +666,7 @@
         <v>0.4612424339883401</v>
       </c>
       <c r="E12">
-        <v>0.396</v>
+        <v>0.359</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Модель</t>
   </si>
@@ -38,6 +38,14 @@
          normalize=False)</t>
   </si>
   <si>
+    <t>RandomForestRegressor(bootstrap=True, criterion='mae', max_depth=None,
+           max_features='auto', max_leaf_nodes=None,
+           min_impurity_decrease=0.0, min_impurity_split=None,
+           min_samples_leaf=1, min_samples_split=2,
+           min_weight_fraction_leaf=0.0, n_estimators=10, n_jobs=-1,
+           oob_score=False, random_state=None, verbose=0, warm_start=False)</t>
+  </si>
+  <si>
     <t>Обучение на полном набооре -&gt; прогноз рейтингов белых</t>
   </si>
   <si>
@@ -69,6 +77,12 @@
   </si>
   <si>
     <t>Обучение на сумме рейтингов</t>
+  </si>
+  <si>
+    <t>Random Forest по сумме рейтингов</t>
+  </si>
+  <si>
+    <t>Random Forest по разнице рейтингов</t>
   </si>
 </sst>
 </file>
@@ -426,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,7 +483,7 @@
         <v>0.931</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -489,7 +503,7 @@
         <v>0.931</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -509,7 +523,7 @@
         <v>0.32</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -529,7 +543,7 @@
         <v>0.265</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -549,7 +563,7 @@
         <v>0.138</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -569,7 +583,7 @@
         <v>0.139</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -589,7 +603,7 @@
         <v>0.142</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -609,7 +623,7 @@
         <v>0.172</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -629,7 +643,7 @@
         <v>0.369</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -649,7 +663,7 @@
         <v>0.384</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -669,7 +683,47 @@
         <v>0.359</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>368.4788855297512</v>
+      </c>
+      <c r="C13">
+        <v>463.8378538109383</v>
+      </c>
+      <c r="D13">
+        <v>0.3302330143709556</v>
+      </c>
+      <c r="E13">
+        <v>631.577</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>156.946976776144</v>
+      </c>
+      <c r="C14">
+        <v>200.3773236235154</v>
+      </c>
+      <c r="D14">
+        <v>0.5353409294285028</v>
+      </c>
+      <c r="E14">
+        <v>692.592</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Models" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Модель</t>
   </si>
@@ -38,14 +38,6 @@
          normalize=False)</t>
   </si>
   <si>
-    <t>RandomForestRegressor(bootstrap=True, criterion='mae', max_depth=None,
-           max_features='auto', max_leaf_nodes=None,
-           min_impurity_decrease=0.0, min_impurity_split=None,
-           min_samples_leaf=1, min_samples_split=2,
-           min_weight_fraction_leaf=0.0, n_estimators=10, n_jobs=-1,
-           oob_score=False, random_state=None, verbose=0, warm_start=False)</t>
-  </si>
-  <si>
     <t>Обучение на полном набооре -&gt; прогноз рейтингов белых</t>
   </si>
   <si>
@@ -77,12 +69,6 @@
   </si>
   <si>
     <t>Обучение на сумме рейтингов</t>
-  </si>
-  <si>
-    <t>Random Forest по сумме рейтингов</t>
-  </si>
-  <si>
-    <t>Random Forest по разнице рейтингов</t>
   </si>
 </sst>
 </file>
@@ -440,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,10 +466,10 @@
         <v>0.4861114575434856</v>
       </c>
       <c r="E2">
-        <v>0.931</v>
+        <v>0.367</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -500,10 +486,10 @@
         <v>0.4833031758143577</v>
       </c>
       <c r="E3">
-        <v>0.931</v>
+        <v>0.367</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -520,10 +506,10 @@
         <v>0.4537184826328874</v>
       </c>
       <c r="E4">
-        <v>0.32</v>
+        <v>0.164</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -540,10 +526,10 @@
         <v>0.4615198499542351</v>
       </c>
       <c r="E5">
-        <v>0.265</v>
+        <v>0.269</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -560,10 +546,10 @@
         <v>0.4647136211820422</v>
       </c>
       <c r="E6">
-        <v>0.138</v>
+        <v>0.151</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -580,10 +566,10 @@
         <v>0.4517214486755745</v>
       </c>
       <c r="E7">
-        <v>0.139</v>
+        <v>0.142</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -600,10 +586,10 @@
         <v>0.4673378389294096</v>
       </c>
       <c r="E8">
-        <v>0.142</v>
+        <v>0.151</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -620,10 +606,10 @@
         <v>0.4616176029564751</v>
       </c>
       <c r="E9">
-        <v>0.172</v>
+        <v>0.165</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -640,10 +626,10 @@
         <v>0.4612427786722407</v>
       </c>
       <c r="E10">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -660,10 +646,10 @@
         <v>0.57432012879721</v>
       </c>
       <c r="E11">
-        <v>0.384</v>
+        <v>0.362</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -680,50 +666,10 @@
         <v>0.4612424339883401</v>
       </c>
       <c r="E12">
-        <v>0.359</v>
+        <v>0.43</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>368.4788855297512</v>
-      </c>
-      <c r="C13">
-        <v>463.8378538109383</v>
-      </c>
-      <c r="D13">
-        <v>0.3302330143709556</v>
-      </c>
-      <c r="E13">
-        <v>631.577</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>156.946976776144</v>
-      </c>
-      <c r="C14">
-        <v>200.3773236235154</v>
-      </c>
-      <c r="D14">
-        <v>0.5353409294285028</v>
-      </c>
-      <c r="E14">
-        <v>692.592</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Models" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Модель</t>
   </si>
@@ -38,6 +38,14 @@
          normalize=False)</t>
   </si>
   <si>
+    <t>ExtraTreesRegressor(bootstrap=False, criterion='mae', max_depth=None,
+          max_features='auto', max_leaf_nodes=None,
+          min_impurity_decrease=0.0, min_impurity_split=None,
+          min_samples_leaf=1, min_samples_split=2,
+          min_weight_fraction_leaf=0.0, n_estimators=500, n_jobs=-1,
+          oob_score=False, random_state=4, verbose=0, warm_start=False)</t>
+  </si>
+  <si>
     <t>Обучение на полном набооре -&gt; прогноз рейтингов белых</t>
   </si>
   <si>
@@ -69,6 +77,12 @@
   </si>
   <si>
     <t>Обучение на сумме рейтингов</t>
+  </si>
+  <si>
+    <t>ExtraTreesRegressor по сумме рейтингов</t>
+  </si>
+  <si>
+    <t>ExtraTreesRegressor на разнице в рейтинге</t>
   </si>
 </sst>
 </file>
@@ -426,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,7 +483,7 @@
         <v>0.367</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -489,7 +503,7 @@
         <v>0.367</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -509,7 +523,7 @@
         <v>0.164</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -529,7 +543,7 @@
         <v>0.269</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -549,7 +563,7 @@
         <v>0.151</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -569,7 +583,7 @@
         <v>0.142</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -589,7 +603,7 @@
         <v>0.151</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -609,7 +623,7 @@
         <v>0.165</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -629,7 +643,7 @@
         <v>0.37</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -649,7 +663,7 @@
         <v>0.362</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -669,7 +683,47 @@
         <v>0.43</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>347.8959975264532</v>
+      </c>
+      <c r="C13">
+        <v>435.9824700014952</v>
+      </c>
+      <c r="D13">
+        <v>0.4344670044119352</v>
+      </c>
+      <c r="E13">
+        <v>4237.236</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>148.8517870001374</v>
+      </c>
+      <c r="C14">
+        <v>190.5146328733018</v>
+      </c>
+      <c r="D14">
+        <v>0.5878158181265829</v>
+      </c>
+      <c r="E14">
+        <v>4247.091</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Модель</t>
   </si>
@@ -46,6 +46,16 @@
           oob_score=False, random_state=4, verbose=0, warm_start=False)</t>
   </si>
   <si>
+    <t>KNeighborsRegressor(algorithm='auto', leaf_size=15, metric='chebyshev',
+          metric_params=None, n_jobs=-1, n_neighbors=2, p=2,
+          weights='distance')</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor(algorithm='auto', leaf_size=30, metric='euclidean',
+          metric_params=None, n_jobs=-1, n_neighbors=3, p=2,
+          weights='uniform')</t>
+  </si>
+  <si>
     <t>Обучение на полном набооре -&gt; прогноз рейтингов белых</t>
   </si>
   <si>
@@ -83,6 +93,12 @@
   </si>
   <si>
     <t>ExtraTreesRegressor на разнице в рейтинге</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor по сумме рейтингов</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor на разнице в рейтинге</t>
   </si>
 </sst>
 </file>
@@ -440,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +499,7 @@
         <v>0.367</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -503,7 +519,7 @@
         <v>0.367</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -523,7 +539,7 @@
         <v>0.164</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -543,7 +559,7 @@
         <v>0.269</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -563,7 +579,7 @@
         <v>0.151</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -583,7 +599,7 @@
         <v>0.142</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -603,7 +619,7 @@
         <v>0.151</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -623,7 +639,7 @@
         <v>0.165</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -643,7 +659,7 @@
         <v>0.37</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -663,7 +679,7 @@
         <v>0.362</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -683,7 +699,7 @@
         <v>0.43</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -703,7 +719,7 @@
         <v>4237.236</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -723,7 +739,67 @@
         <v>4247.091</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>347.8959975264532</v>
+      </c>
+      <c r="C15">
+        <v>435.9824700014952</v>
+      </c>
+      <c r="D15">
+        <v>0.4344670044119352</v>
+      </c>
+      <c r="E15">
+        <v>4306.235</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>445.4421981504001</v>
+      </c>
+      <c r="C16">
+        <v>562.1342431766894</v>
+      </c>
+      <c r="D16">
+        <v>0.1348942744691201</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>186.0729696303422</v>
+      </c>
+      <c r="C17">
+        <v>236.2941436913869</v>
+      </c>
+      <c r="D17">
+        <v>0.3335428033327642</v>
+      </c>
+      <c r="E17">
+        <v>0.999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Модель</t>
   </si>
@@ -56,6 +56,38 @@
           weights='uniform')</t>
   </si>
   <si>
+    <t>RandomForestRegressor(bootstrap=False, criterion='mae', max_depth=None,
+           max_features=2, max_leaf_nodes=None, min_impurity_decrease=0.0,
+           min_impurity_split=None, min_samples_leaf=1,
+           min_samples_split=5, min_weight_fraction_leaf=0.0,
+           n_estimators=500, n_jobs=-1, oob_score=False, random_state=4,
+           verbose=0, warm_start=False)</t>
+  </si>
+  <si>
+    <t>RandomForestRegressor(bootstrap=True, criterion='mae', max_depth=None,
+           max_features=1, max_leaf_nodes=None, min_impurity_decrease=0.0,
+           min_impurity_split=None, min_samples_leaf=5,
+           min_samples_split=25, min_weight_fraction_leaf=0.0,
+           n_estimators=500, n_jobs=-1, oob_score=True, random_state=4,
+           verbose=0, warm_start=False)</t>
+  </si>
+  <si>
+    <t>RandomForestRegressor(bootstrap=False, criterion='mae', max_depth=None,
+           max_features=2, max_leaf_nodes=None, min_impurity_decrease=0.0,
+           min_impurity_split=None, min_samples_leaf=1,
+           min_samples_split=5, min_weight_fraction_leaf=0.0,
+           n_estimators=200, n_jobs=-1, oob_score=False, random_state=4,
+           verbose=0, warm_start=False)</t>
+  </si>
+  <si>
+    <t>AdaBoostRegressor(base_estimator=None, learning_rate=2, loss='square',
+         n_estimators=500, random_state=4)</t>
+  </si>
+  <si>
+    <t>AdaBoostRegressor(base_estimator=None, learning_rate=2, loss='square',
+         n_estimators=50, random_state=4)</t>
+  </si>
+  <si>
     <t>Обучение на полном набооре -&gt; прогноз рейтингов белых</t>
   </si>
   <si>
@@ -99,6 +131,18 @@
   </si>
   <si>
     <t>KNeighborsRegressor на разнице в рейтинге</t>
+  </si>
+  <si>
+    <t>RandomForest по сумме рейтингов</t>
+  </si>
+  <si>
+    <t>RandomForest на разнице в рейтинге</t>
+  </si>
+  <si>
+    <t>AdaBoost по сумме рейтингов</t>
+  </si>
+  <si>
+    <t>AdaBoost на разнице в рейтинге</t>
   </si>
 </sst>
 </file>
@@ -456,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,7 +543,7 @@
         <v>0.367</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -519,7 +563,7 @@
         <v>0.367</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -539,7 +583,7 @@
         <v>0.164</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -559,7 +603,7 @@
         <v>0.269</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -579,7 +623,7 @@
         <v>0.151</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -599,7 +643,7 @@
         <v>0.142</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -619,7 +663,7 @@
         <v>0.151</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -639,7 +683,7 @@
         <v>0.165</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -659,7 +703,7 @@
         <v>0.37</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -679,7 +723,7 @@
         <v>0.362</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -699,7 +743,7 @@
         <v>0.43</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -719,7 +763,7 @@
         <v>4237.236</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -739,7 +783,7 @@
         <v>4247.091</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -759,7 +803,7 @@
         <v>4306.235</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -779,7 +823,7 @@
         <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -799,7 +843,167 @@
         <v>0.999</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>352.3058489075169</v>
+      </c>
+      <c r="C18">
+        <v>444.9821652787385</v>
+      </c>
+      <c r="D18">
+        <v>0.3983889560159898</v>
+      </c>
+      <c r="E18">
+        <v>216.097</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>164.7293589391232</v>
+      </c>
+      <c r="C19">
+        <v>206.729387273764</v>
+      </c>
+      <c r="D19">
+        <v>0.5483660991991725</v>
+      </c>
+      <c r="E19">
+        <v>58.591</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>445.4421981504001</v>
+      </c>
+      <c r="C20">
+        <v>562.1342431766894</v>
+      </c>
+      <c r="D20">
+        <v>0.1348942744691201</v>
+      </c>
+      <c r="E20">
+        <v>0.49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>186.0729696303422</v>
+      </c>
+      <c r="C21">
+        <v>236.2941436913869</v>
+      </c>
+      <c r="D21">
+        <v>0.3335428033327642</v>
+      </c>
+      <c r="E21">
+        <v>0.991</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>352.2530922770373</v>
+      </c>
+      <c r="C22">
+        <v>441.2141537871883</v>
+      </c>
+      <c r="D22">
+        <v>0.4104426640289527</v>
+      </c>
+      <c r="E22">
+        <v>87.289</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>155.3438723375018</v>
+      </c>
+      <c r="C23">
+        <v>197.2452627364112</v>
+      </c>
+      <c r="D23">
+        <v>0.5613317136799386</v>
+      </c>
+      <c r="E23">
+        <v>59.329</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>361.1197381569609</v>
+      </c>
+      <c r="C24">
+        <v>453.0728331414797</v>
+      </c>
+      <c r="D24">
+        <v>0.3863759942874788</v>
+      </c>
+      <c r="E24">
+        <v>97.164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>160.5567909512461</v>
+      </c>
+      <c r="C25">
+        <v>204.8329229383748</v>
+      </c>
+      <c r="D25">
+        <v>0.5280205145900221</v>
+      </c>
+      <c r="E25">
+        <v>399.55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Модель</t>
   </si>
@@ -88,6 +88,16 @@
          n_estimators=50, random_state=4)</t>
   </si>
   <si>
+    <t>ElasticNet(alpha=1, copy_X=True, fit_intercept=False, l1_ratio=0,
+      max_iter=1000, normalize=False, positive=False, precompute=False,
+      random_state=4, selection='cyclic', tol=0.0001, warm_start=False)</t>
+  </si>
+  <si>
+    <t>ElasticNet(alpha=0.5, copy_X=True, fit_intercept=True, l1_ratio=1,
+      max_iter=1000, normalize=False, positive=False, precompute=False,
+      random_state=4, selection='cyclic', tol=0.0001, warm_start=False)</t>
+  </si>
+  <si>
     <t>Обучение на полном набооре -&gt; прогноз рейтингов белых</t>
   </si>
   <si>
@@ -143,6 +153,12 @@
   </si>
   <si>
     <t>AdaBoost на разнице в рейтинге</t>
+  </si>
+  <si>
+    <t>ElasticNet по сумме рейтингов</t>
+  </si>
+  <si>
+    <t>ElasticNet на разнице в рейтинге</t>
   </si>
 </sst>
 </file>
@@ -500,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,7 +559,7 @@
         <v>0.367</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -563,7 +579,7 @@
         <v>0.367</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -583,7 +599,7 @@
         <v>0.164</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -603,7 +619,7 @@
         <v>0.269</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -623,7 +639,7 @@
         <v>0.151</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -643,7 +659,7 @@
         <v>0.142</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -663,7 +679,7 @@
         <v>0.151</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -683,7 +699,7 @@
         <v>0.165</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -703,7 +719,7 @@
         <v>0.37</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -723,7 +739,7 @@
         <v>0.362</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -743,7 +759,7 @@
         <v>0.43</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -763,7 +779,7 @@
         <v>4237.236</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -783,7 +799,7 @@
         <v>4247.091</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -803,7 +819,7 @@
         <v>4306.235</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -823,7 +839,7 @@
         <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -843,7 +859,7 @@
         <v>0.999</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -863,7 +879,7 @@
         <v>216.097</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -883,7 +899,7 @@
         <v>58.591</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -903,7 +919,7 @@
         <v>0.49</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -923,7 +939,7 @@
         <v>0.991</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -943,7 +959,7 @@
         <v>87.289</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -963,7 +979,7 @@
         <v>59.329</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -983,7 +999,7 @@
         <v>97.164</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1003,7 +1019,47 @@
         <v>399.55</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>473.8175189660946</v>
+      </c>
+      <c r="C26">
+        <v>648.8254021549927</v>
+      </c>
+      <c r="D26">
+        <v>0.1544718318301569</v>
+      </c>
+      <c r="E26">
+        <v>1.989</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>152.5117496601395</v>
+      </c>
+      <c r="C27">
+        <v>195.7573770639239</v>
+      </c>
+      <c r="D27">
+        <v>0.5560630633487451</v>
+      </c>
+      <c r="E27">
+        <v>2.809</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Модель</t>
   </si>
@@ -98,6 +98,10 @@
       random_state=4, selection='cyclic', tol=0.0001, warm_start=False)</t>
   </si>
   <si>
+    <t>SVR(C=1.0, cache_size=200, coef0=0.0, degree=3, epsilon=0.1, gamma='auto',
+  kernel='rbf', max_iter=-1, shrinking=True, tol=0.001, verbose=False)</t>
+  </si>
+  <si>
     <t>Обучение на полном набооре -&gt; прогноз рейтингов белых</t>
   </si>
   <si>
@@ -159,6 +163,12 @@
   </si>
   <si>
     <t>ElasticNet на разнице в рейтинге</t>
+  </si>
+  <si>
+    <t>SVM по сумме рейтингов</t>
+  </si>
+  <si>
+    <t>SVM на разнице в рейтинге</t>
   </si>
 </sst>
 </file>
@@ -516,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,7 +569,7 @@
         <v>0.367</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -579,7 +589,7 @@
         <v>0.367</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -599,7 +609,7 @@
         <v>0.164</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -619,7 +629,7 @@
         <v>0.269</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -639,7 +649,7 @@
         <v>0.151</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -659,7 +669,7 @@
         <v>0.142</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -679,7 +689,7 @@
         <v>0.151</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -699,7 +709,7 @@
         <v>0.165</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -719,7 +729,7 @@
         <v>0.37</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -739,7 +749,7 @@
         <v>0.362</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -759,7 +769,7 @@
         <v>0.43</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -779,7 +789,7 @@
         <v>4237.236</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -799,7 +809,7 @@
         <v>4247.091</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -819,7 +829,7 @@
         <v>4306.235</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -839,7 +849,7 @@
         <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -859,7 +869,7 @@
         <v>0.999</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -879,7 +889,7 @@
         <v>216.097</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -899,7 +909,7 @@
         <v>58.591</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -919,7 +929,7 @@
         <v>0.49</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -939,7 +949,7 @@
         <v>0.991</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -959,7 +969,7 @@
         <v>87.289</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -979,7 +989,7 @@
         <v>59.329</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -999,7 +1009,7 @@
         <v>97.164</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1019,7 +1029,7 @@
         <v>399.55</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1039,7 +1049,7 @@
         <v>1.989</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1059,7 +1069,47 @@
         <v>2.809</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>385.5112770347113</v>
+      </c>
+      <c r="C28">
+        <v>485.0894050944528</v>
+      </c>
+      <c r="D28">
+        <v>0.005708534791070398</v>
+      </c>
+      <c r="E28">
+        <v>569.183</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>191.2708070608209</v>
+      </c>
+      <c r="C29">
+        <v>235.4946869239378</v>
+      </c>
+      <c r="D29">
+        <v>0.0009852597018295683</v>
+      </c>
+      <c r="E29">
+        <v>160.583</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PredictingRatings\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -174,8 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,17 +239,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,9 +295,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,9 +329,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,9 +364,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,14 +540,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -560,19 +582,19 @@
         <v>186.5390674252348</v>
       </c>
       <c r="C2">
-        <v>234.5591344166317</v>
+        <v>234.55913441663171</v>
       </c>
       <c r="D2">
-        <v>0.4861114575434856</v>
+        <v>0.48611145754348561</v>
       </c>
       <c r="E2">
-        <v>0.367</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -583,36 +605,36 @@
         <v>237.4201235143905</v>
       </c>
       <c r="D3">
-        <v>0.4833031758143577</v>
+        <v>0.48330317581435772</v>
       </c>
       <c r="E3">
-        <v>0.367</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>175.5939485738201</v>
+        <v>175.59394857382009</v>
       </c>
       <c r="C4">
-        <v>221.3537962645542</v>
+        <v>221.35379626455421</v>
       </c>
       <c r="D4">
-        <v>0.4537184826328874</v>
+        <v>0.45371848263288739</v>
       </c>
       <c r="E4">
-        <v>0.164</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -620,30 +642,30 @@
         <v>176.3264392457923</v>
       </c>
       <c r="C5">
-        <v>221.7670502506353</v>
+        <v>221.76705025063529</v>
       </c>
       <c r="D5">
-        <v>0.4615198499542351</v>
+        <v>0.46151984995423512</v>
       </c>
       <c r="E5">
-        <v>0.269</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>177.4317343765107</v>
+        <v>177.43173437651069</v>
       </c>
       <c r="C6">
-        <v>224.5951994321098</v>
+        <v>224.59519943210981</v>
       </c>
       <c r="D6">
-        <v>0.4647136211820422</v>
+        <v>0.46471362118204218</v>
       </c>
       <c r="E6">
         <v>0.151</v>
@@ -652,38 +674,38 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>182.0486487891933</v>
+        <v>182.04864878919329</v>
       </c>
       <c r="C7">
         <v>228.3849918184082</v>
       </c>
       <c r="D7">
-        <v>0.4517214486755745</v>
+        <v>0.45172144867557451</v>
       </c>
       <c r="E7">
-        <v>0.142</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>192.0628053618938</v>
+        <v>192.06280536189379</v>
       </c>
       <c r="C8">
-        <v>241.5809901604144</v>
+        <v>241.58099016041439</v>
       </c>
       <c r="D8">
-        <v>0.4673378389294096</v>
+        <v>0.46733783892940961</v>
       </c>
       <c r="E8">
         <v>0.151</v>
@@ -692,38 +714,38 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>193.2422929664311</v>
+        <v>193.24229296643111</v>
       </c>
       <c r="C9">
         <v>242.4044882058142</v>
       </c>
       <c r="D9">
-        <v>0.4616176029564751</v>
+        <v>0.46161760295647508</v>
       </c>
       <c r="E9">
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>171.079101230132</v>
+        <v>171.07910123013201</v>
       </c>
       <c r="C10">
-        <v>215.5222937985535</v>
+        <v>215.52229379855351</v>
       </c>
       <c r="D10">
-        <v>0.4612427786722407</v>
+        <v>0.46124277867224073</v>
       </c>
       <c r="E10">
         <v>0.37</v>
@@ -732,7 +754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -740,30 +762,30 @@
         <v>150.7008961384476</v>
       </c>
       <c r="C11">
-        <v>192.2720774072816</v>
+        <v>192.27207740728161</v>
       </c>
       <c r="D11">
-        <v>0.57432012879721</v>
+        <v>0.57432012879720995</v>
       </c>
       <c r="E11">
-        <v>0.362</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>342.1607352745056</v>
+        <v>342.16073527450561</v>
       </c>
       <c r="C12">
-        <v>431.0499430753056</v>
+        <v>431.04994307530558</v>
       </c>
       <c r="D12">
-        <v>0.4612424339883401</v>
+        <v>0.46124243398834008</v>
       </c>
       <c r="E12">
         <v>0.43</v>
@@ -772,78 +794,78 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
-        <v>347.8959975264532</v>
+        <v>347.89599752645319</v>
       </c>
       <c r="C13">
-        <v>435.9824700014952</v>
+        <v>435.98247000149519</v>
       </c>
       <c r="D13">
         <v>0.4344670044119352</v>
       </c>
       <c r="E13">
-        <v>4237.236</v>
+        <v>4237.2359999999999</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>148.8517870001374</v>
+        <v>148.85178700013739</v>
       </c>
       <c r="C14">
-        <v>190.5146328733018</v>
+        <v>190.51463287330179</v>
       </c>
       <c r="D14">
         <v>0.5878158181265829</v>
       </c>
       <c r="E14">
-        <v>4247.091</v>
+        <v>4247.0910000000003</v>
       </c>
       <c r="F14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>347.8959975264532</v>
+        <v>347.89599752645319</v>
       </c>
       <c r="C15">
-        <v>435.9824700014952</v>
+        <v>435.98247000149519</v>
       </c>
       <c r="D15">
         <v>0.4344670044119352</v>
       </c>
       <c r="E15">
-        <v>4306.235</v>
+        <v>4306.2349999999997</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>445.4421981504001</v>
+        <v>445.44219815040009</v>
       </c>
       <c r="C16">
-        <v>562.1342431766894</v>
+        <v>562.13424317668944</v>
       </c>
       <c r="D16">
-        <v>0.1348942744691201</v>
+        <v>0.13489427446912011</v>
       </c>
       <c r="E16">
         <v>0.5</v>
@@ -852,15 +874,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17">
-        <v>186.0729696303422</v>
+        <v>186.07296963034219</v>
       </c>
       <c r="C17">
-        <v>236.2941436913869</v>
+        <v>236.29414369138689</v>
       </c>
       <c r="D17">
         <v>0.3335428033327642</v>
@@ -872,58 +894,58 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18">
-        <v>352.3058489075169</v>
+        <v>352.30584890751692</v>
       </c>
       <c r="C18">
-        <v>444.9821652787385</v>
+        <v>444.98216527873848</v>
       </c>
       <c r="D18">
-        <v>0.3983889560159898</v>
+        <v>0.39838895601598978</v>
       </c>
       <c r="E18">
-        <v>216.097</v>
+        <v>216.09700000000001</v>
       </c>
       <c r="F18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19">
-        <v>164.7293589391232</v>
+        <v>164.72935893912319</v>
       </c>
       <c r="C19">
-        <v>206.729387273764</v>
+        <v>206.72938727376399</v>
       </c>
       <c r="D19">
-        <v>0.5483660991991725</v>
+        <v>0.54836609919917245</v>
       </c>
       <c r="E19">
-        <v>58.591</v>
+        <v>58.591000000000001</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20">
-        <v>445.4421981504001</v>
+        <v>445.44219815040009</v>
       </c>
       <c r="C20">
-        <v>562.1342431766894</v>
+        <v>562.13424317668944</v>
       </c>
       <c r="D20">
-        <v>0.1348942744691201</v>
+        <v>0.13489427446912011</v>
       </c>
       <c r="E20">
         <v>0.49</v>
@@ -932,27 +954,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
-        <v>186.0729696303422</v>
+        <v>186.07296963034219</v>
       </c>
       <c r="C21">
-        <v>236.2941436913869</v>
+        <v>236.29414369138689</v>
       </c>
       <c r="D21">
         <v>0.3335428033327642</v>
       </c>
       <c r="E21">
-        <v>0.991</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -960,70 +982,70 @@
         <v>352.2530922770373</v>
       </c>
       <c r="C22">
-        <v>441.2141537871883</v>
+        <v>441.21415378718831</v>
       </c>
       <c r="D22">
-        <v>0.4104426640289527</v>
+        <v>0.41044266402895269</v>
       </c>
       <c r="E22">
-        <v>87.289</v>
+        <v>87.289000000000001</v>
       </c>
       <c r="F22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23">
-        <v>155.3438723375018</v>
+        <v>155.34387233750181</v>
       </c>
       <c r="C23">
-        <v>197.2452627364112</v>
+        <v>197.24526273641121</v>
       </c>
       <c r="D23">
-        <v>0.5613317136799386</v>
+        <v>0.56133171367993862</v>
       </c>
       <c r="E23">
-        <v>59.329</v>
+        <v>59.329000000000001</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24">
-        <v>361.1197381569609</v>
+        <v>361.11973815696092</v>
       </c>
       <c r="C24">
-        <v>453.0728331414797</v>
+        <v>453.07283314147969</v>
       </c>
       <c r="D24">
-        <v>0.3863759942874788</v>
+        <v>0.38637599428747882</v>
       </c>
       <c r="E24">
-        <v>97.164</v>
+        <v>97.164000000000001</v>
       </c>
       <c r="F24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25">
-        <v>160.5567909512461</v>
+        <v>160.55679095124609</v>
       </c>
       <c r="C25">
-        <v>204.8329229383748</v>
+        <v>204.83292293837479</v>
       </c>
       <c r="D25">
-        <v>0.5280205145900221</v>
+        <v>0.52802051459002208</v>
       </c>
       <c r="E25">
         <v>399.55</v>
@@ -1032,78 +1054,78 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26">
-        <v>473.8175189660946</v>
+        <v>473.81751896609461</v>
       </c>
       <c r="C26">
-        <v>648.8254021549927</v>
+        <v>648.82540215499273</v>
       </c>
       <c r="D26">
-        <v>0.1544718318301569</v>
+        <v>0.15447183183015689</v>
       </c>
       <c r="E26">
-        <v>1.989</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27">
-        <v>152.5117496601395</v>
+        <v>152.51174966013949</v>
       </c>
       <c r="C27">
-        <v>195.7573770639239</v>
+        <v>195.75737706392391</v>
       </c>
       <c r="D27">
-        <v>0.5560630633487451</v>
+        <v>0.55606306334874511</v>
       </c>
       <c r="E27">
-        <v>2.809</v>
+        <v>2.8090000000000002</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28">
-        <v>385.5112770347113</v>
+        <v>385.51127703471133</v>
       </c>
       <c r="C28">
-        <v>485.0894050944528</v>
+        <v>485.08940509445279</v>
       </c>
       <c r="D28">
-        <v>0.005708534791070398</v>
+        <v>5.7085347910703979E-3</v>
       </c>
       <c r="E28">
-        <v>569.183</v>
+        <v>569.18299999999999</v>
       </c>
       <c r="F28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
       <c r="B29">
-        <v>191.2708070608209</v>
+        <v>191.27080706082091</v>
       </c>
       <c r="C29">
-        <v>235.4946869239378</v>
+        <v>235.49468692393779</v>
       </c>
       <c r="D29">
-        <v>0.0009852597018295683</v>
+        <v>9.8525970182956825E-4</v>
       </c>
       <c r="E29">
         <v>160.583</v>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -197,12 +197,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -232,11 +238,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -541,20 +548,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,567 +584,572 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>186.5390674252348</v>
-      </c>
-      <c r="C2">
-        <v>234.55913441663171</v>
-      </c>
-      <c r="D2">
-        <v>0.48611145754348561</v>
-      </c>
-      <c r="E2">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>148.85178700013739</v>
+      </c>
+      <c r="C2" s="2">
+        <v>190.51463287330179</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.5878158181265829</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4247.0910000000003</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>189.3584427677377</v>
+        <v>150.7008961384476</v>
       </c>
       <c r="C3">
-        <v>237.4201235143905</v>
+        <v>192.27207740728161</v>
       </c>
       <c r="D3">
-        <v>0.48330317581435772</v>
+        <v>0.57432012879720995</v>
       </c>
       <c r="E3">
-        <v>0.36699999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>175.59394857382009</v>
+        <v>152.51174966013949</v>
       </c>
       <c r="C4">
-        <v>221.35379626455421</v>
+        <v>195.75737706392391</v>
       </c>
       <c r="D4">
-        <v>0.45371848263288739</v>
+        <v>0.55606306334874511</v>
       </c>
       <c r="E4">
-        <v>0.16400000000000001</v>
+        <v>2.8090000000000002</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>176.3264392457923</v>
+        <v>155.34387233750181</v>
       </c>
       <c r="C5">
-        <v>221.76705025063529</v>
+        <v>197.24526273641121</v>
       </c>
       <c r="D5">
-        <v>0.46151984995423512</v>
+        <v>0.56133171367993862</v>
       </c>
       <c r="E5">
-        <v>0.26900000000000002</v>
+        <v>59.329000000000001</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>177.43173437651069</v>
+        <v>160.55679095124609</v>
       </c>
       <c r="C6">
-        <v>224.59519943210981</v>
+        <v>204.83292293837479</v>
       </c>
       <c r="D6">
-        <v>0.46471362118204218</v>
+        <v>0.52802051459002208</v>
       </c>
       <c r="E6">
-        <v>0.151</v>
+        <v>399.55</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>182.04864878919329</v>
+        <v>164.72935893912319</v>
       </c>
       <c r="C7">
-        <v>228.3849918184082</v>
+        <v>206.72938727376399</v>
       </c>
       <c r="D7">
-        <v>0.45172144867557451</v>
+        <v>0.54836609919917245</v>
       </c>
       <c r="E7">
-        <v>0.14199999999999999</v>
+        <v>58.591000000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>192.06280536189379</v>
+        <v>171.07910123013201</v>
       </c>
       <c r="C8">
-        <v>241.58099016041439</v>
+        <v>215.52229379855351</v>
       </c>
       <c r="D8">
-        <v>0.46733783892940961</v>
+        <v>0.46124277867224073</v>
       </c>
       <c r="E8">
-        <v>0.151</v>
+        <v>0.37</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>193.24229296643111</v>
+        <v>175.59394857382009</v>
       </c>
       <c r="C9">
-        <v>242.4044882058142</v>
+        <v>221.35379626455421</v>
       </c>
       <c r="D9">
-        <v>0.46161760295647508</v>
+        <v>0.45371848263288739</v>
       </c>
       <c r="E9">
-        <v>0.16500000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>171.07910123013201</v>
+        <v>176.3264392457923</v>
       </c>
       <c r="C10">
-        <v>215.52229379855351</v>
+        <v>221.76705025063529</v>
       </c>
       <c r="D10">
-        <v>0.46124277867224073</v>
+        <v>0.46151984995423512</v>
       </c>
       <c r="E10">
-        <v>0.37</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>150.7008961384476</v>
+        <v>177.43173437651069</v>
       </c>
       <c r="C11">
-        <v>192.27207740728161</v>
+        <v>224.59519943210981</v>
       </c>
       <c r="D11">
-        <v>0.57432012879720995</v>
+        <v>0.46471362118204218</v>
       </c>
       <c r="E11">
-        <v>0.36199999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12">
+        <v>182.04864878919329</v>
+      </c>
+      <c r="C12">
+        <v>228.3849918184082</v>
+      </c>
+      <c r="D12">
+        <v>0.45172144867557451</v>
+      </c>
+      <c r="E12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>186.07296963034219</v>
+      </c>
+      <c r="C13">
+        <v>236.29414369138689</v>
+      </c>
+      <c r="D13">
+        <v>0.3335428033327642</v>
+      </c>
+      <c r="E13">
+        <v>0.999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>186.07296963034219</v>
+      </c>
+      <c r="C14">
+        <v>236.29414369138689</v>
+      </c>
+      <c r="D14">
+        <v>0.3335428033327642</v>
+      </c>
+      <c r="E14">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>186.5390674252348</v>
+      </c>
+      <c r="C15">
+        <v>234.55913441663171</v>
+      </c>
+      <c r="D15">
+        <v>0.48611145754348561</v>
+      </c>
+      <c r="E15">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>189.3584427677377</v>
+      </c>
+      <c r="C16">
+        <v>237.4201235143905</v>
+      </c>
+      <c r="D16">
+        <v>0.48330317581435772</v>
+      </c>
+      <c r="E16">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>191.27080706082091</v>
+      </c>
+      <c r="C17">
+        <v>235.49468692393779</v>
+      </c>
+      <c r="D17">
+        <v>9.8525970182956825E-4</v>
+      </c>
+      <c r="E17">
+        <v>160.583</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>192.06280536189379</v>
+      </c>
+      <c r="C18">
+        <v>241.58099016041439</v>
+      </c>
+      <c r="D18">
+        <v>0.46733783892940961</v>
+      </c>
+      <c r="E18">
+        <v>0.151</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>193.24229296643111</v>
+      </c>
+      <c r="C19">
+        <v>242.4044882058142</v>
+      </c>
+      <c r="D19">
+        <v>0.46161760295647508</v>
+      </c>
+      <c r="E19">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
         <v>342.16073527450561</v>
       </c>
-      <c r="C12">
+      <c r="C20" s="2">
         <v>431.04994307530558</v>
       </c>
-      <c r="D12">
+      <c r="D20" s="2">
         <v>0.46124243398834008</v>
       </c>
-      <c r="E12">
+      <c r="E20" s="2">
         <v>0.43</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F20" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B21">
         <v>347.89599752645319</v>
       </c>
-      <c r="C13">
+      <c r="C21">
         <v>435.98247000149519</v>
       </c>
-      <c r="D13">
+      <c r="D21">
         <v>0.4344670044119352</v>
       </c>
-      <c r="E13">
+      <c r="E21">
         <v>4237.2359999999999</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>148.85178700013739</v>
-      </c>
-      <c r="C14">
-        <v>190.51463287330179</v>
-      </c>
-      <c r="D14">
-        <v>0.5878158181265829</v>
-      </c>
-      <c r="E14">
-        <v>4247.0910000000003</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
+      <c r="B22">
         <v>347.89599752645319</v>
       </c>
-      <c r="C15">
+      <c r="C22">
         <v>435.98247000149519</v>
       </c>
-      <c r="D15">
+      <c r="D22">
         <v>0.4344670044119352</v>
       </c>
-      <c r="E15">
+      <c r="E22">
         <v>4306.2349999999997</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>352.2530922770373</v>
+      </c>
+      <c r="C23">
+        <v>441.21415378718831</v>
+      </c>
+      <c r="D23">
+        <v>0.41044266402895269</v>
+      </c>
+      <c r="E23">
+        <v>87.289000000000001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>352.30584890751692</v>
+      </c>
+      <c r="C24">
+        <v>444.98216527873848</v>
+      </c>
+      <c r="D24">
+        <v>0.39838895601598978</v>
+      </c>
+      <c r="E24">
+        <v>216.09700000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>361.11973815696092</v>
+      </c>
+      <c r="C25">
+        <v>453.07283314147969</v>
+      </c>
+      <c r="D25">
+        <v>0.38637599428747882</v>
+      </c>
+      <c r="E25">
+        <v>97.164000000000001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>385.51127703471133</v>
+      </c>
+      <c r="C26">
+        <v>485.08940509445279</v>
+      </c>
+      <c r="D26">
+        <v>5.7085347910703979E-3</v>
+      </c>
+      <c r="E26">
+        <v>569.18299999999999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="B27">
         <v>445.44219815040009</v>
       </c>
-      <c r="C16">
+      <c r="C27">
         <v>562.13424317668944</v>
       </c>
-      <c r="D16">
+      <c r="D27">
         <v>0.13489427446912011</v>
       </c>
-      <c r="E16">
+      <c r="E27">
         <v>0.5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>186.07296963034219</v>
-      </c>
-      <c r="C17">
-        <v>236.29414369138689</v>
-      </c>
-      <c r="D17">
-        <v>0.3335428033327642</v>
-      </c>
-      <c r="E17">
-        <v>0.999</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>352.30584890751692</v>
-      </c>
-      <c r="C18">
-        <v>444.98216527873848</v>
-      </c>
-      <c r="D18">
-        <v>0.39838895601598978</v>
-      </c>
-      <c r="E18">
-        <v>216.09700000000001</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>164.72935893912319</v>
-      </c>
-      <c r="C19">
-        <v>206.72938727376399</v>
-      </c>
-      <c r="D19">
-        <v>0.54836609919917245</v>
-      </c>
-      <c r="E19">
-        <v>58.591000000000001</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B28">
         <v>445.44219815040009</v>
       </c>
-      <c r="C20">
+      <c r="C28">
         <v>562.13424317668944</v>
       </c>
-      <c r="D20">
+      <c r="D28">
         <v>0.13489427446912011</v>
       </c>
-      <c r="E20">
+      <c r="E28">
         <v>0.49</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>186.07296963034219</v>
-      </c>
-      <c r="C21">
-        <v>236.29414369138689</v>
-      </c>
-      <c r="D21">
-        <v>0.3335428033327642</v>
-      </c>
-      <c r="E21">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>352.2530922770373</v>
-      </c>
-      <c r="C22">
-        <v>441.21415378718831</v>
-      </c>
-      <c r="D22">
-        <v>0.41044266402895269</v>
-      </c>
-      <c r="E22">
-        <v>87.289000000000001</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>155.34387233750181</v>
-      </c>
-      <c r="C23">
-        <v>197.24526273641121</v>
-      </c>
-      <c r="D23">
-        <v>0.56133171367993862</v>
-      </c>
-      <c r="E23">
-        <v>59.329000000000001</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>361.11973815696092</v>
-      </c>
-      <c r="C24">
-        <v>453.07283314147969</v>
-      </c>
-      <c r="D24">
-        <v>0.38637599428747882</v>
-      </c>
-      <c r="E24">
-        <v>97.164000000000001</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25">
-        <v>160.55679095124609</v>
-      </c>
-      <c r="C25">
-        <v>204.83292293837479</v>
-      </c>
-      <c r="D25">
-        <v>0.52802051459002208</v>
-      </c>
-      <c r="E25">
-        <v>399.55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B26">
+      <c r="B29">
         <v>473.81751896609461</v>
       </c>
-      <c r="C26">
+      <c r="C29">
         <v>648.82540215499273</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>0.15447183183015689</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>1.9890000000000001</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27">
-        <v>152.51174966013949</v>
-      </c>
-      <c r="C27">
-        <v>195.75737706392391</v>
-      </c>
-      <c r="D27">
-        <v>0.55606306334874511</v>
-      </c>
-      <c r="E27">
-        <v>2.8090000000000002</v>
-      </c>
-      <c r="F27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28">
-        <v>385.51127703471133</v>
-      </c>
-      <c r="C28">
-        <v>485.08940509445279</v>
-      </c>
-      <c r="D28">
-        <v>5.7085347910703979E-3</v>
-      </c>
-      <c r="E28">
-        <v>569.18299999999999</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <v>191.27080706082091</v>
-      </c>
-      <c r="C29">
-        <v>235.49468692393779</v>
-      </c>
-      <c r="D29">
-        <v>9.8525970182956825E-4</v>
-      </c>
-      <c r="E29">
-        <v>160.583</v>
-      </c>
-      <c r="F29" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:F29">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -551,12 +551,12 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="84.140625" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>

--- a/models/results.xlsx
+++ b/models/results.xlsx
@@ -238,12 +238,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -550,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,8 +590,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
@@ -645,8 +651,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5">
@@ -966,8 +972,8 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B21">
@@ -986,8 +992,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B22">
@@ -1006,8 +1012,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B23">
